--- a/data/option_data/call/ATVI.xlsx
+++ b/data/option_data/call/ATVI.xlsx
@@ -570,19 +570,19 @@
         <v>67.15000000000001</v>
       </c>
       <c r="G2">
-        <v>63.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>37.5</v>
       </c>
       <c r="I2">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>9</v>
       </c>
       <c r="K2">
-        <v>0.6232947827148438</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -608,19 +608,19 @@
         <v>64.01000000000001</v>
       </c>
       <c r="G3">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>40</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.5881388842773438</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -684,19 +684,19 @@
         <v>48.2</v>
       </c>
       <c r="G5">
-        <v>56.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>45</v>
       </c>
       <c r="I5">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5">
-        <v>0.5509688458251953</v>
+        <v>1E-05</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -757,22 +757,22 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>54.62</v>
+        <v>52.6</v>
       </c>
       <c r="G7">
-        <v>52.05</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="I7">
-        <v>55.85</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0.461064959716797</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -798,19 +798,19 @@
         <v>50.12</v>
       </c>
       <c r="G8">
-        <v>48.7</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>55</v>
       </c>
       <c r="I8">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0.4806570489501953</v>
+        <v>1E-05</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -833,22 +833,22 @@
         <v>60</v>
       </c>
       <c r="F9">
-        <v>45.9</v>
+        <v>45.6</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>60</v>
       </c>
       <c r="I9">
-        <v>48.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0.4644828942871094</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -874,19 +874,19 @@
         <v>32.85</v>
       </c>
       <c r="G10">
-        <v>41.1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>65</v>
       </c>
       <c r="I10">
-        <v>42.9</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10">
-        <v>0.3951476501464845</v>
+        <v>1E-05</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -912,19 +912,19 @@
         <v>31.49</v>
       </c>
       <c r="G11">
-        <v>38.6</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>67.5</v>
       </c>
       <c r="I11">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.3906921282958984</v>
+        <v>1E-05</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -950,19 +950,19 @@
         <v>38.19</v>
       </c>
       <c r="G12">
-        <v>36.9</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>70</v>
       </c>
       <c r="I12">
-        <v>38.9</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12">
-        <v>0.3794007373046875</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -988,19 +988,19 @@
         <v>36.88</v>
       </c>
       <c r="G13">
-        <v>35.55</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>72.5</v>
       </c>
       <c r="I13">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13">
-        <v>0.4053404193115234</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1026,19 +1026,19 @@
         <v>35.3</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>75</v>
       </c>
       <c r="I14">
-        <v>36.4</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>3</v>
       </c>
       <c r="K14">
-        <v>0.3991759301757813</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1064,19 +1064,19 @@
         <v>33</v>
       </c>
       <c r="G15">
-        <v>31.65</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>77.5</v>
       </c>
       <c r="I15">
-        <v>34.1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15">
-        <v>0.3801941864013672</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1102,19 +1102,19 @@
         <v>32</v>
       </c>
       <c r="G16">
-        <v>30.7</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>80</v>
       </c>
       <c r="I16">
-        <v>32.1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.3684145190429688</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1140,19 +1140,19 @@
         <v>28.35</v>
       </c>
       <c r="G17">
-        <v>28.15</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>82.5</v>
       </c>
       <c r="I17">
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.3651796881103516</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1178,19 +1178,19 @@
         <v>29.5</v>
       </c>
       <c r="G18">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>85</v>
       </c>
       <c r="I18">
-        <v>30.15</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0.3876709182739257</v>
+        <v>1E-05</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1216,19 +1216,19 @@
         <v>27</v>
       </c>
       <c r="G19">
-        <v>25.55</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>87.5</v>
       </c>
       <c r="I19">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>0.3858093646240234</v>
+        <v>1E-05</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1254,19 +1254,19 @@
         <v>25.82</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>90</v>
       </c>
       <c r="I20">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0.3880066082763671</v>
+        <v>1E-05</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -1292,19 +1292,19 @@
         <v>24.5</v>
       </c>
       <c r="G21">
-        <v>22.85</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>92.5</v>
       </c>
       <c r="I21">
-        <v>25.2</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>20</v>
       </c>
       <c r="K21">
-        <v>0.3646303771972657</v>
+        <v>1E-05</v>
       </c>
       <c r="L21" t="b">
         <v>1</v>
@@ -1330,19 +1330,19 @@
         <v>22.2</v>
       </c>
       <c r="G22">
-        <v>22.1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>95</v>
       </c>
       <c r="I22">
-        <v>23.55</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>5</v>
       </c>
       <c r="K22">
-        <v>0.3557193334960937</v>
+        <v>1E-05</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1368,19 +1368,19 @@
         <v>20.85</v>
       </c>
       <c r="G23">
-        <v>20.55</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>97.5</v>
       </c>
       <c r="I23">
-        <v>22.7</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23">
-        <v>0.3611514080810546</v>
+        <v>1E-05</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -1403,22 +1403,22 @@
         <v>100</v>
       </c>
       <c r="F24">
-        <v>20.6</v>
+        <v>20.55</v>
       </c>
       <c r="G24">
-        <v>18.95</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0.3682008981323243</v>
+        <v>1E-05</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -1441,22 +1441,22 @@
         <v>105</v>
       </c>
       <c r="F25">
-        <v>18.5</v>
+        <v>18.45</v>
       </c>
       <c r="G25">
-        <v>17.85</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>105</v>
       </c>
       <c r="I25">
-        <v>20.25</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>6</v>
+        <v>1906</v>
       </c>
       <c r="K25">
-        <v>0.3729310754394531</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>110</v>
       </c>
       <c r="F26">
-        <v>16.8</v>
+        <v>15.9</v>
       </c>
       <c r="G26">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>110</v>
       </c>
       <c r="I26">
-        <v>17.15</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>0.3505313970947265</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>115</v>
       </c>
       <c r="F27">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="G27">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>115</v>
       </c>
       <c r="I27">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K27">
-        <v>0.351019673461914</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1555,22 +1555,22 @@
         <v>120</v>
       </c>
       <c r="F28">
-        <v>12.71</v>
+        <v>12.75</v>
       </c>
       <c r="G28">
-        <v>11.75</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>120</v>
       </c>
       <c r="I28">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K28">
-        <v>0.3425358715820312</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1596,19 +1596,19 @@
         <v>11.16</v>
       </c>
       <c r="G29">
-        <v>10.05</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>125</v>
       </c>
       <c r="I29">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.3472965661621094</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>10.15</v>
       </c>
       <c r="G30">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>130</v>
       </c>
       <c r="I30">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30">
-        <v>0.3352422433471679</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L30" t="b">
         <v>0</v>
@@ -1672,19 +1672,19 @@
         <v>8.9</v>
       </c>
       <c r="G31">
-        <v>7.55</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>135</v>
       </c>
       <c r="I31">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>11</v>
       </c>
       <c r="K31">
-        <v>0.3555362298583984</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L31" t="b">
         <v>0</v>
@@ -1707,22 +1707,22 @@
         <v>140</v>
       </c>
       <c r="F32">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="G32">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>140</v>
       </c>
       <c r="I32">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0.3300543069458007</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L32" t="b">
         <v>0</v>
@@ -1748,19 +1748,19 @@
         <v>6.35</v>
       </c>
       <c r="G33">
-        <v>6.05</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>145</v>
       </c>
       <c r="I33">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>0.3284674087524414</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L33" t="b">
         <v>0</v>
@@ -1783,22 +1783,22 @@
         <v>150</v>
       </c>
       <c r="F34">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G34">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>150</v>
       </c>
       <c r="I34">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K34">
-        <v>0.3279486151123047</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L34" t="b">
         <v>0</v>
@@ -1821,22 +1821,22 @@
         <v>155</v>
       </c>
       <c r="F35">
-        <v>5.65</v>
+        <v>5.55</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>155</v>
       </c>
       <c r="I35">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>21</v>
+        <v>502</v>
       </c>
       <c r="K35">
-        <v>0.327704476928711</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L35" t="b">
         <v>0</v>

--- a/data/option_data/call/ATVI.xlsx
+++ b/data/option_data/call/ATVI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="46">
   <si>
     <t>symbol</t>
   </si>
@@ -509,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,22 +535,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -570,25 +567,22 @@
         <v>67.15000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="H2">
         <v>37.5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5816692224121094</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -608,25 +602,22 @@
         <v>64.01000000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>61.15</v>
       </c>
       <c r="H3">
         <v>40</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4509332250976563</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -652,19 +643,16 @@
         <v>42.5</v>
       </c>
       <c r="I4">
-        <v>55.35</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
         <v>1E-05</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -684,25 +672,22 @@
         <v>48.2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>56.85</v>
       </c>
       <c r="H5">
         <v>45</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1E-05</v>
-      </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.4342097595214844</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -728,19 +713,16 @@
         <v>47.5</v>
       </c>
       <c r="I6">
-        <v>47.3</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
         <v>1E-05</v>
       </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -760,25 +742,22 @@
         <v>52.6</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>52.9</v>
       </c>
       <c r="H7">
         <v>50</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.4185849157714844</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -798,25 +777,22 @@
         <v>50.12</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>48.65</v>
       </c>
       <c r="H8">
         <v>55</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1E-05</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4079649047851562</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -836,25 +812,22 @@
         <v>45.6</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>43.45</v>
       </c>
       <c r="H9">
         <v>60</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.439885972290039</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -874,25 +847,22 @@
         <v>32.85</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>39.45</v>
       </c>
       <c r="H10">
         <v>65</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>1E-05</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4260311303710938</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -912,25 +882,22 @@
         <v>31.49</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="H11">
         <v>67.5</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1E-05</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4207211248779297</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -947,28 +914,25 @@
         <v>70</v>
       </c>
       <c r="F12">
-        <v>38.19</v>
+        <v>36.35</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>35.75</v>
       </c>
       <c r="H12">
         <v>70</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.4158383612060547</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -988,25 +952,22 @@
         <v>36.88</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>33.95</v>
       </c>
       <c r="H13">
         <v>72.5</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.4112607702636719</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1032,19 +993,16 @@
         <v>75</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
         <v>1E-05</v>
       </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1064,25 +1022,22 @@
         <v>33</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="H15">
         <v>77.5</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.374029697265625</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1108,19 +1063,16 @@
         <v>80</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
         <v>1E-05</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1140,25 +1092,22 @@
         <v>28.35</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="H17">
         <v>82.5</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.364264169921875</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1178,25 +1127,22 @@
         <v>29.5</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>26.05</v>
       </c>
       <c r="H18">
         <v>85</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1E-05</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.3948424774169922</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1216,25 +1162,22 @@
         <v>27</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>24.65</v>
       </c>
       <c r="H19">
         <v>87.5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>1E-05</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.3923705783081054</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1254,25 +1197,22 @@
         <v>25.82</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>23.3</v>
       </c>
       <c r="H20">
         <v>90</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1E-05</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.3819641882324218</v>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1292,25 +1232,22 @@
         <v>24.5</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>23.35</v>
       </c>
       <c r="H21">
         <v>92.5</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J21">
-        <v>20</v>
-      </c>
-      <c r="K21">
-        <v>1E-05</v>
-      </c>
-      <c r="L21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.3592898544311524</v>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1330,25 +1267,22 @@
         <v>22.2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>21.55</v>
       </c>
       <c r="H22">
         <v>95</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>1E-05</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3586489916992188</v>
+      </c>
+      <c r="K22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1368,25 +1302,22 @@
         <v>20.85</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>19.55</v>
       </c>
       <c r="H23">
         <v>97.5</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>1E-05</v>
-      </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3834290173339844</v>
+      </c>
+      <c r="K23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1406,25 +1337,22 @@
         <v>20.55</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>1E-05</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.3814759118652343</v>
+      </c>
+      <c r="K24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1441,28 +1369,25 @@
         <v>105</v>
       </c>
       <c r="F25">
-        <v>18.45</v>
+        <v>18</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="H25">
         <v>105</v>
       </c>
       <c r="I25">
+        <v>1502</v>
+      </c>
+      <c r="J25">
+        <v>0.3508365698242187</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>1906</v>
-      </c>
-      <c r="K25">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1479,28 +1404,25 @@
         <v>110</v>
       </c>
       <c r="F26">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="H26">
         <v>110</v>
       </c>
       <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>0.3474186352539062</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1520,25 +1442,22 @@
         <v>14.3</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="H27">
         <v>115</v>
       </c>
       <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>0.3436650106811523</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1558,25 +1477,22 @@
         <v>12.75</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="H28">
         <v>120</v>
       </c>
       <c r="I28">
+        <v>14</v>
+      </c>
+      <c r="J28">
+        <v>0.3414677670288085</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>14</v>
-      </c>
-      <c r="K28">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1596,25 +1512,22 @@
         <v>11.16</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="H29">
         <v>125</v>
       </c>
       <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0.3392705233764648</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1634,25 +1547,22 @@
         <v>10.15</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>9.25</v>
       </c>
       <c r="H30">
         <v>130</v>
       </c>
       <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0.338171901550293</v>
+      </c>
+      <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>2</v>
-      </c>
-      <c r="K30">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1672,25 +1582,22 @@
         <v>8.9</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="H31">
         <v>135</v>
       </c>
       <c r="I31">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>0.3619753744506836</v>
+      </c>
+      <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>11</v>
-      </c>
-      <c r="K31">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1710,25 +1617,22 @@
         <v>7.3</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="H32">
         <v>140</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0.3608462353515625</v>
+      </c>
+      <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1748,25 +1652,22 @@
         <v>6.35</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="H33">
         <v>145</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0.3607241662597656</v>
+      </c>
+      <c r="K33" t="b">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1783,28 +1684,25 @@
         <v>150</v>
       </c>
       <c r="F34">
-        <v>5.7</v>
+        <v>6.14</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="H34">
         <v>150</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0.3327093096923829</v>
+      </c>
+      <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>9</v>
-      </c>
-      <c r="K34">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1824,21 +1722,18 @@
         <v>5.55</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H35">
         <v>155</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="J35">
-        <v>502</v>
-      </c>
-      <c r="K35">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L35" t="b">
+        <v>0.3320989642333985</v>
+      </c>
+      <c r="K35" t="b">
         <v>0</v>
       </c>
     </row>
